--- a/ML-ProjectsList.xlsx
+++ b/ML-ProjectsList.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="2019" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="2018" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ML Projects List" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="408">
   <si>
     <t xml:space="preserve">ALGORITHM</t>
   </si>
@@ -2082,6 +2083,407 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.analyticsvidhya.com/blog/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Blog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MNIST</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommendation System</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2Code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Seires</t>
   </si>
 </sst>
 </file>
@@ -2487,7 +2889,7 @@
     <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="139">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2958,6 +3360,90 @@
     </xf>
     <xf numFmtId="164" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3056,10 +3542,10 @@
   </sheetPr>
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E97" activeCellId="0" sqref="E97"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5641,7 +6127,8 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5682,4 +6169,919 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C103"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="29" width="22.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="51.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="33" width="11.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="98" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="121"/>
+    </row>
+    <row r="3" s="12" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="123" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="122" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="126" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="124" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="127" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="127" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="123"/>
+    </row>
+    <row r="8" s="12" customFormat="true" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="126" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="123"/>
+    </row>
+    <row r="10" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="127" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="128" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" s="98" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="120"/>
+      <c r="C13" s="121"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="122" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="126" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="125" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="131" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="125" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="127" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="131" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="122" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="132" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="126" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="131"/>
+      <c r="C21" s="125"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="131" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="125"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="131" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="131"/>
+      <c r="C24" s="125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="131" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="131" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" s="12" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="127" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="126" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="124" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" s="98" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="120" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="120"/>
+      <c r="C29" s="121"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="124" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="125" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="125" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" s="12" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="133" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" s="12" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="122" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="126" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="129" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="124" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="35" s="98" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="121"/>
+      <c r="C35" s="121"/>
+    </row>
+    <row r="36" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="134" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="122"/>
+      <c r="C36" s="126" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="122" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="122"/>
+      <c r="C37" s="126" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="124"/>
+      <c r="B38" s="124" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="124"/>
+      <c r="B39" s="124" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="124" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="124" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" s="98" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="121" t="s">
+        <v>404</v>
+      </c>
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="129" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="129" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="129" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="45" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="127" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="127" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="126" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="127" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="122" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="126" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47" s="12" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="127" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="122" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="126" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48" s="98" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="120" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="120"/>
+      <c r="C48" s="121"/>
+    </row>
+    <row r="49" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="127" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="127" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="122"/>
+      <c r="B50" s="126" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="126"/>
+    </row>
+    <row r="51" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="122"/>
+      <c r="B51" s="126" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="123"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="129" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="124" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="129" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="124"/>
+      <c r="B54" s="125" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" s="125"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="124"/>
+      <c r="B55" s="125" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="125"/>
+    </row>
+    <row r="56" s="12" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="122" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" s="122" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="122" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" s="126" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="126"/>
+    </row>
+    <row r="58" s="98" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="120" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" s="120"/>
+      <c r="C58" s="121"/>
+    </row>
+    <row r="59" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="127" t="s">
+        <v>200</v>
+      </c>
+      <c r="B59" s="122" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" s="123"/>
+    </row>
+    <row r="60" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="135" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" s="136" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="123"/>
+    </row>
+    <row r="61" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="135"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="123"/>
+    </row>
+    <row r="62" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="124"/>
+      <c r="B62" s="137" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="127" t="s">
+        <v>208</v>
+      </c>
+      <c r="B63" s="122" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="126" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="127" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" s="122" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="126" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="122"/>
+      <c r="B65" s="127" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="126" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="122" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" s="124"/>
+      <c r="C66" s="125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="122"/>
+      <c r="B67" s="124" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" s="125" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" s="98" customFormat="true" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="120" t="s">
+        <v>407</v>
+      </c>
+      <c r="B68" s="120"/>
+      <c r="C68" s="121"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" s="122" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" s="126" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="123" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" s="127" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" s="126" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="126" t="s">
+        <v>226</v>
+      </c>
+      <c r="B71" s="122" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" s="126" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="72" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" s="122" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" s="126" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" s="12" customFormat="true" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="126" t="s">
+        <v>232</v>
+      </c>
+      <c r="B73" s="122" t="s">
+        <v>233</v>
+      </c>
+      <c r="C73" s="123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="38.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="123" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" s="122" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="126" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+    </row>
+    <row r="77" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0"/>
+      <c r="B77" s="0"/>
+      <c r="C77" s="0"/>
+    </row>
+    <row r="78" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0"/>
+      <c r="B78" s="0"/>
+      <c r="C78" s="0"/>
+    </row>
+    <row r="82" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0"/>
+      <c r="B82" s="0"/>
+      <c r="C82" s="0"/>
+    </row>
+    <row r="84" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0"/>
+      <c r="B84" s="0"/>
+      <c r="C84" s="0"/>
+    </row>
+    <row r="89" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0"/>
+      <c r="B89" s="0"/>
+      <c r="C89" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="115"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="115"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="115"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="115"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="115"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="115"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="115"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="115"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="115"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="115"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="115"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="1"/>
+    <hyperlink ref="C5" r:id="rId2" display="1"/>
+    <hyperlink ref="C6" r:id="rId3" display="1"/>
+    <hyperlink ref="A7" r:id="rId4" display="New York City Airbnb Open Data"/>
+    <hyperlink ref="B7" r:id="rId5" display="New York City Airbnb Open Data"/>
+    <hyperlink ref="A8" r:id="rId6" display="Black Friday"/>
+    <hyperlink ref="A9" r:id="rId7" display="Red Wine Quality"/>
+    <hyperlink ref="B9" r:id="rId8" display="Red Wine Quality"/>
+    <hyperlink ref="A10" r:id="rId9" display="Big Mart Sales"/>
+    <hyperlink ref="B10" r:id="rId10" display="Big Mart Sales"/>
+    <hyperlink ref="A11" r:id="rId11" display="Million Song Dataset"/>
+    <hyperlink ref="C12" r:id="rId12" display="1"/>
+    <hyperlink ref="A14" r:id="rId13" display="human_cell_samples"/>
+    <hyperlink ref="C14" r:id="rId14" display="1"/>
+    <hyperlink ref="A15" r:id="rId15" display="CustomerChurnData"/>
+    <hyperlink ref="C15" r:id="rId16" display="1"/>
+    <hyperlink ref="C16" r:id="rId17" display="1"/>
+    <hyperlink ref="A17" r:id="rId18" display="Telecom_Customer"/>
+    <hyperlink ref="C17" r:id="rId19" display="1"/>
+    <hyperlink ref="A19" r:id="rId20" display="Patients_data"/>
+    <hyperlink ref="C19" r:id="rId21" display="1"/>
+    <hyperlink ref="A21" r:id="rId22" display="Red Wine Quality"/>
+    <hyperlink ref="A22" r:id="rId23" display="Human Activity Recognition Using Smartphones Data Set"/>
+    <hyperlink ref="A23" r:id="rId24" display="Trip History Dataset"/>
+    <hyperlink ref="C23" r:id="rId25" display="1"/>
+    <hyperlink ref="A24" r:id="rId26" display="Census Income Dataset"/>
+    <hyperlink ref="C24" r:id="rId27" display="1"/>
+    <hyperlink ref="A25" r:id="rId28" display="Urban Sound Classification"/>
+    <hyperlink ref="C25" r:id="rId29" display="1"/>
+    <hyperlink ref="A26" r:id="rId30" display="Chicago Crime Dataset"/>
+    <hyperlink ref="C26" r:id="rId31" display="1"/>
+    <hyperlink ref="A27" r:id="rId32" display="HR Analytics"/>
+    <hyperlink ref="C27" r:id="rId33" display="1"/>
+    <hyperlink ref="C28" r:id="rId34" display="1"/>
+    <hyperlink ref="A30" r:id="rId35" display="Customer_clust"/>
+    <hyperlink ref="C30" r:id="rId36" display="Kmeans"/>
+    <hyperlink ref="A31" r:id="rId37" display="Environment_canada_weather"/>
+    <hyperlink ref="C31" r:id="rId38" location="scrollTo=o2chaY1VC3Lg" display="DBSCAN"/>
+    <hyperlink ref="A32" r:id="rId39" display="Turkiye Student Evaluation Dataset"/>
+    <hyperlink ref="C32" r:id="rId40" display="Clustering"/>
+    <hyperlink ref="A33" r:id="rId41" display="Wholesale customers data"/>
+    <hyperlink ref="C33" r:id="rId42" display="1"/>
+    <hyperlink ref="A34" r:id="rId43" display="cars_clust"/>
+    <hyperlink ref="C34" r:id="rId44" location="scrollTo=GWP8wZ-2ABcy" display="1"/>
+    <hyperlink ref="C39" r:id="rId45" display="AV"/>
+    <hyperlink ref="C40" r:id="rId46" display="Kaggle"/>
+    <hyperlink ref="A42" r:id="rId47" display="moviedataset"/>
+    <hyperlink ref="C42" r:id="rId48" location="scrollTo=ardKyVApGZDu" display="DL_RBM"/>
+    <hyperlink ref="A43" r:id="rId49" display="moviedataset"/>
+    <hyperlink ref="C43" r:id="rId50" display="1"/>
+    <hyperlink ref="A44" r:id="rId51" display="moviedataset"/>
+    <hyperlink ref="C44" r:id="rId52" location="scrollTo=QpddmhlMGeTs" display="1"/>
+    <hyperlink ref="A45" r:id="rId53" display="Million Song Dataset"/>
+    <hyperlink ref="B45" r:id="rId54" display="Million Song"/>
+    <hyperlink ref="C45" r:id="rId55" display="1"/>
+    <hyperlink ref="A46" r:id="rId56" display="Movie Lens Dataset"/>
+    <hyperlink ref="C46" r:id="rId57" display="1"/>
+    <hyperlink ref="A47" r:id="rId58" display="Recommendation Engine Dataset"/>
+    <hyperlink ref="A49" r:id="rId59" display="AV"/>
+    <hyperlink ref="B49" r:id="rId60" display="AV"/>
+    <hyperlink ref="C49" r:id="rId61" display="AV"/>
+    <hyperlink ref="B50" r:id="rId62" display="How To Crawl A Web Page with Scrapy and Python 3"/>
+    <hyperlink ref="B51" r:id="rId63" display="Making Web Crawlers Using Scrapy for Python"/>
+    <hyperlink ref="A52" r:id="rId64" display="IMBD"/>
+    <hyperlink ref="C52" r:id="rId65" location="scrollTo=nAIQ6U8Rk_Q0" display="1"/>
+    <hyperlink ref="A53" r:id="rId66" display="Wikipedia"/>
+    <hyperlink ref="C53" r:id="rId67" location="scrollTo=FboWZw3Ek8W5" display="1"/>
+    <hyperlink ref="B54" r:id="rId68" display="Building a Web Scraper from start to finish"/>
+    <hyperlink ref="B55" r:id="rId69" display="Web scraping with Python"/>
+    <hyperlink ref="C56" r:id="rId70" display="AV"/>
+    <hyperlink ref="B57" r:id="rId71" display="Extracting and Analyzing 1000 Basketball Games using Pandas and Chartify"/>
+    <hyperlink ref="A59" r:id="rId72" location="siam-competition2007" display="Text Mining Dataset"/>
+    <hyperlink ref="A60" r:id="rId73" display="Joke Rating Prediction Challenge"/>
+    <hyperlink ref="C62" r:id="rId74" display="1"/>
+    <hyperlink ref="A63" r:id="rId75" display="Twitter Classification Dataset"/>
+    <hyperlink ref="A64" r:id="rId76" display="Identify the Sentiments"/>
+    <hyperlink ref="C64" r:id="rId77" display="myWork"/>
+    <hyperlink ref="B65" r:id="rId78" display="NLP Essentials: Removing Stopwords and Performing Text Normalization using NLTK and spaCy in Python"/>
+    <hyperlink ref="C66" r:id="rId79" display="Kaggle"/>
+    <hyperlink ref="C67" r:id="rId80" display="KAggle"/>
+    <hyperlink ref="B69" r:id="rId81" display="everything-you-can-do-with-a-time-series"/>
+    <hyperlink ref="C69" r:id="rId82" display="Kaggle"/>
+    <hyperlink ref="B70" r:id="rId83" display="s-p-500-time-series-forecasting-with-prophet"/>
+    <hyperlink ref="C70" r:id="rId84" display="Kaggle"/>
+    <hyperlink ref="A71" r:id="rId85" display="Time Series Analysis Dataset"/>
+    <hyperlink ref="C71" r:id="rId86" display="1"/>
+    <hyperlink ref="C72" r:id="rId87" display="AV"/>
+    <hyperlink ref="A73" r:id="rId88" display="Food Demand Forecasting Challenge"/>
+    <hyperlink ref="C74" r:id="rId89" display="Task"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>